--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
   <si>
     <t>Telefoni</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Jarqorgon</t>
+  </si>
+  <si>
+    <t>Bandixon</t>
+  </si>
+  <si>
+    <t>Angor</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1666,10 +1672,10 @@
         <v>2000000</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>121210</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>59</v>
@@ -1692,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>59</v>
@@ -1712,10 +1718,10 @@
         <v>3500000</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <v>23333</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>59</v>
@@ -1738,9 +1744,469 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5">
+        <v>998901234617</v>
+      </c>
+      <c r="C52" s="2">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4083333.3333333302</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5">
+        <v>998901234618</v>
+      </c>
+      <c r="C53" s="2">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4066666.6666666698</v>
+      </c>
+      <c r="E53" s="2">
+        <v>22220</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>998901234619</v>
+      </c>
+      <c r="C54" s="2">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4050000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5">
+        <v>998901234620</v>
+      </c>
+      <c r="C55" s="2">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4033333.3333333302</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5">
+        <v>998901234621</v>
+      </c>
+      <c r="C56" s="2">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4016666.6666666698</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5">
+        <v>998901234622</v>
+      </c>
+      <c r="C57" s="2">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>998901234623</v>
+      </c>
+      <c r="C58" s="2">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3983333.3333333302</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5">
+        <v>998901234624</v>
+      </c>
+      <c r="C59" s="2">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3966666.6666666698</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5">
+        <v>998901234625</v>
+      </c>
+      <c r="C60" s="2">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3950000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5">
+        <v>998901234626</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3933333.3333333302</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="5">
+        <v>998901234627</v>
+      </c>
+      <c r="C62" s="2">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3916666.6666666698</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="5">
+        <v>998901234628</v>
+      </c>
+      <c r="C63" s="2">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="5">
+        <v>998901234629</v>
+      </c>
+      <c r="C64" s="2">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3883333.3333333302</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="5">
+        <v>998901234630</v>
+      </c>
+      <c r="C65" s="2">
+        <v>64</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3866666.6666666698</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="5">
+        <v>998901234631</v>
+      </c>
+      <c r="C66" s="2">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3850000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G66" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="5">
+        <v>998901234632</v>
+      </c>
+      <c r="C67" s="2">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3833333.3333333302</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="5">
+        <v>998901234633</v>
+      </c>
+      <c r="C68" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3816666.6666666698</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="5">
+        <v>998901234634</v>
+      </c>
+      <c r="C69" s="2">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3800000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="5">
+        <v>998901234635</v>
+      </c>
+      <c r="C70" s="2">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3783333.3333333302</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="5">
+        <v>998901234636</v>
+      </c>
+      <c r="C71" s="2">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3766666.6666666698</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>59</v>
       </c>
     </row>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
   <si>
-    <t>Telefoni</t>
-  </si>
-  <si>
     <t>Qarzdorlik</t>
   </si>
   <si>
@@ -198,15 +195,9 @@
     <t>Ismi</t>
   </si>
   <si>
-    <t>uyida</t>
-  </si>
-  <si>
     <t>Qarzi</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Jarqorgon</t>
   </si>
   <si>
@@ -214,15 +205,23 @@
   </si>
   <si>
     <t>Angor</t>
+  </si>
+  <si>
+    <t>lokatsiya qo'yiladi</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="165" formatCode="0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,14 +268,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,15 +564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
@@ -577,36 +582,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
         <v>998901234567</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -616,21 +621,21 @@
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
         <v>998901234568</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="2">
@@ -640,21 +645,21 @@
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>998901234569</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="2">
@@ -664,22 +669,22 @@
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
         <v>998901234570</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
+      <c r="C5" s="7">
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
@@ -688,21 +693,21 @@
         <v>2500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
         <v>998901234571</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
+      <c r="C6" s="7">
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>7000000</v>
@@ -711,20 +716,20 @@
         <v>3000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
         <v>998901234572</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>6</v>
       </c>
       <c r="D7" s="2">
@@ -734,20 +739,20 @@
         <v>500000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
         <v>998901234573</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="2">
@@ -757,20 +762,20 @@
         <v>1200000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>998901234574</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
       <c r="D9" s="2">
@@ -780,20 +785,20 @@
         <v>1800000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
         <v>998901234575</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10" s="2">
@@ -803,20 +808,20 @@
         <v>800000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
         <v>998901234576</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>10</v>
       </c>
       <c r="D11" s="2">
@@ -826,20 +831,20 @@
         <v>2200000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
         <v>998901234577</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>11</v>
       </c>
       <c r="D12" s="2">
@@ -849,20 +854,20 @@
         <v>1000000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
         <v>998901234578</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="2">
@@ -872,20 +877,20 @@
         <v>1700000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
         <v>998901234579</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -895,20 +900,20 @@
         <v>2500000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
         <v>998901234580</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="2">
@@ -918,20 +923,20 @@
         <v>700000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
         <v>998901234581</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>15</v>
       </c>
       <c r="D16" s="2">
@@ -941,20 +946,20 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
         <v>998901234582</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>16</v>
       </c>
       <c r="D17" s="2">
@@ -964,20 +969,20 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
         <v>998901234583</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>17</v>
       </c>
       <c r="D18" s="2">
@@ -987,20 +992,20 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
         <v>998901234584</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>18</v>
       </c>
       <c r="D19" s="2">
@@ -1010,20 +1015,20 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
         <v>998901234585</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
       <c r="D20" s="2">
@@ -1033,20 +1038,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
         <v>998901234586</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>20</v>
       </c>
       <c r="D21" s="2">
@@ -1056,20 +1061,20 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
         <v>998901234587</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>21</v>
       </c>
       <c r="D22" s="2">
@@ -1079,20 +1084,20 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
         <v>998901234588</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>22</v>
       </c>
       <c r="D23" s="2">
@@ -1102,20 +1107,20 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4">
         <v>998901234589</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>23</v>
       </c>
       <c r="D24" s="2">
@@ -1125,20 +1130,20 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
         <v>998901234590</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>24</v>
       </c>
       <c r="D25" s="2">
@@ -1148,20 +1153,20 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
         <v>998901234591</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>25</v>
       </c>
       <c r="D26" s="2">
@@ -1171,20 +1176,20 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
         <v>998901234592</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>26</v>
       </c>
       <c r="D27" s="2">
@@ -1194,20 +1199,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
         <v>998901234593</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>27</v>
       </c>
       <c r="D28" s="2">
@@ -1217,20 +1222,20 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4">
         <v>998901234594</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>28</v>
       </c>
       <c r="D29" s="2">
@@ -1240,20 +1245,20 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4">
         <v>998901234595</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>29</v>
       </c>
       <c r="D30" s="2">
@@ -1263,20 +1268,20 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4">
         <v>998901234596</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>30</v>
       </c>
       <c r="D31" s="2">
@@ -1286,20 +1291,20 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4">
         <v>998901234597</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>31</v>
       </c>
       <c r="D32" s="2">
@@ -1309,20 +1314,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
         <v>998901234598</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>32</v>
       </c>
       <c r="D33" s="2">
@@ -1332,20 +1337,20 @@
         <v>1500000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4">
         <v>998901234599</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>33</v>
       </c>
       <c r="D34" s="2">
@@ -1355,20 +1360,20 @@
         <v>2500000</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4">
         <v>998901234600</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>34</v>
       </c>
       <c r="D35" s="2">
@@ -1378,20 +1383,20 @@
         <v>700000</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4">
         <v>998901234601</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>35</v>
       </c>
       <c r="D36" s="2">
@@ -1401,20 +1406,20 @@
         <v>1200000</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="5">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4">
         <v>998901234602</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>36</v>
       </c>
       <c r="D37" s="2">
@@ -1424,20 +1429,20 @@
         <v>2000000</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="5">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4">
         <v>998901234603</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>37</v>
       </c>
       <c r="D38" s="2">
@@ -1447,20 +1452,20 @@
         <v>1000000</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="5">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4">
         <v>998901234604</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>38</v>
       </c>
       <c r="D39" s="2">
@@ -1470,20 +1475,20 @@
         <v>2200000</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4">
         <v>998901234605</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>39</v>
       </c>
       <c r="D40" s="2">
@@ -1493,20 +1498,20 @@
         <v>2500000</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="5">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4">
         <v>998901234606</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>40</v>
       </c>
       <c r="D41" s="2">
@@ -1516,20 +1521,20 @@
         <v>600000</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4">
         <v>998901234607</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>41</v>
       </c>
       <c r="D42" s="2">
@@ -1537,20 +1542,20 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="5">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4">
         <v>998901234608</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>42</v>
       </c>
       <c r="D43" s="2">
@@ -1560,20 +1565,20 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="5">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4">
         <v>998901234609</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>43</v>
       </c>
       <c r="D44" s="2">
@@ -1583,20 +1588,20 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="5">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4">
         <v>998901234610</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>44</v>
       </c>
       <c r="D45" s="2">
@@ -1606,20 +1611,20 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="5">
+        <v>49</v>
+      </c>
+      <c r="B46" s="4">
         <v>998901234611</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>45</v>
       </c>
       <c r="D46" s="2">
@@ -1629,20 +1634,20 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="5">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4">
         <v>998901234612</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>46</v>
       </c>
       <c r="D47" s="2">
@@ -1652,20 +1657,20 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="5">
+        <v>51</v>
+      </c>
+      <c r="B48" s="4">
         <v>998901234613</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>47</v>
       </c>
       <c r="D48" s="2">
@@ -1675,20 +1680,20 @@
         <v>121210</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="5">
+        <v>52</v>
+      </c>
+      <c r="B49" s="4">
         <v>998901234614</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>48</v>
       </c>
       <c r="D49" s="2">
@@ -1698,20 +1703,20 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="5">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4">
         <v>998901234615</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>49</v>
       </c>
       <c r="D50" s="2">
@@ -1721,20 +1726,20 @@
         <v>23333</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="5">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4">
         <v>998901234616</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>50</v>
       </c>
       <c r="D51" s="2">
@@ -1744,20 +1749,20 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="5">
+        <v>46</v>
+      </c>
+      <c r="B52" s="4">
         <v>998901234617</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>51</v>
       </c>
       <c r="D52" s="2">
@@ -1767,20 +1772,20 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="5">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4">
         <v>998901234618</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>52</v>
       </c>
       <c r="D53" s="2">
@@ -1790,20 +1795,20 @@
         <v>22220</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="5">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4">
         <v>998901234619</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>53</v>
       </c>
       <c r="D54" s="2">
@@ -1813,20 +1818,20 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="5">
+        <v>49</v>
+      </c>
+      <c r="B55" s="4">
         <v>998901234620</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>54</v>
       </c>
       <c r="D55" s="2">
@@ -1836,20 +1841,20 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="5">
+        <v>50</v>
+      </c>
+      <c r="B56" s="4">
         <v>998901234621</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>55</v>
       </c>
       <c r="D56" s="2">
@@ -1859,20 +1864,20 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4">
         <v>998901234622</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>56</v>
       </c>
       <c r="D57" s="2">
@@ -1882,20 +1887,20 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="5">
+        <v>52</v>
+      </c>
+      <c r="B58" s="4">
         <v>998901234623</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="7">
         <v>57</v>
       </c>
       <c r="D58" s="2">
@@ -1905,20 +1910,20 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="5">
+        <v>53</v>
+      </c>
+      <c r="B59" s="4">
         <v>998901234624</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>58</v>
       </c>
       <c r="D59" s="2">
@@ -1928,20 +1933,20 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="5">
+        <v>54</v>
+      </c>
+      <c r="B60" s="4">
         <v>998901234625</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="7">
         <v>59</v>
       </c>
       <c r="D60" s="2">
@@ -1951,20 +1956,20 @@
         <v>20000</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="5">
+        <v>46</v>
+      </c>
+      <c r="B61" s="4">
         <v>998901234626</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>60</v>
       </c>
       <c r="D61" s="2">
@@ -1974,20 +1979,20 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="5">
+        <v>47</v>
+      </c>
+      <c r="B62" s="4">
         <v>998901234627</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>61</v>
       </c>
       <c r="D62" s="2">
@@ -1997,20 +2002,20 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="5">
+        <v>48</v>
+      </c>
+      <c r="B63" s="4">
         <v>998901234628</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>62</v>
       </c>
       <c r="D63" s="2">
@@ -2020,20 +2025,20 @@
         <v>10000</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="5">
+        <v>49</v>
+      </c>
+      <c r="B64" s="4">
         <v>998901234629</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>63</v>
       </c>
       <c r="D64" s="2">
@@ -2043,20 +2048,20 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="5">
+        <v>50</v>
+      </c>
+      <c r="B65" s="4">
         <v>998901234630</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>64</v>
       </c>
       <c r="D65" s="2">
@@ -2066,20 +2071,20 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="5">
+        <v>51</v>
+      </c>
+      <c r="B66" s="4">
         <v>998901234631</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>65</v>
       </c>
       <c r="D66" s="2">
@@ -2089,20 +2094,20 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="5">
+        <v>52</v>
+      </c>
+      <c r="B67" s="4">
         <v>998901234632</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>66</v>
       </c>
       <c r="D67" s="2">
@@ -2112,20 +2117,20 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="5">
+        <v>53</v>
+      </c>
+      <c r="B68" s="4">
         <v>998901234633</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>67</v>
       </c>
       <c r="D68" s="2">
@@ -2135,20 +2140,20 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="5">
+        <v>54</v>
+      </c>
+      <c r="B69" s="4">
         <v>998901234634</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>68</v>
       </c>
       <c r="D69" s="2">
@@ -2158,20 +2163,20 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="5">
+        <v>46</v>
+      </c>
+      <c r="B70" s="4">
         <v>998901234635</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>69</v>
       </c>
       <c r="D70" s="2">
@@ -2181,20 +2186,20 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="5">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4">
         <v>998901234636</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>70</v>
       </c>
       <c r="D71" s="2">
@@ -2204,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
